--- a/Вывод.xlsx
+++ b/Вывод.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Документ был экспортирован из Numbers. Каждая таблица была конвертирована в рабочий лист Excel. Все другие объекты на листах Numbers были помещены на отдельные рабочие листы. Имейте в виду, что расчеты формул могут отличаться от расчетов в Excel.</t>
   </si>
@@ -105,6 +105,15 @@
     <t>Пом. 324-1</t>
   </si>
   <si>
+    <t>Коллектор отопления</t>
+  </si>
+  <si>
+    <t>К1</t>
+  </si>
+  <si>
+    <t>Пом 2</t>
+  </si>
+  <si>
     <t>№ п/п</t>
   </si>
   <si>
@@ -190,6 +199,33 @@
   </si>
   <si>
     <t>Давление в системе ХВС CW-PE1</t>
+  </si>
+  <si>
+    <t>К1 Пом 2</t>
+  </si>
+  <si>
+    <t>Протечка</t>
+  </si>
+  <si>
+    <t>Давление холодной воды</t>
+  </si>
+  <si>
+    <t>Давление горячей воды</t>
+  </si>
+  <si>
+    <t>Температура ХВС</t>
+  </si>
+  <si>
+    <t>Управление отсечным клапаном ХВС</t>
+  </si>
+  <si>
+    <t>Регулирование</t>
+  </si>
+  <si>
+    <t>Измерение</t>
+  </si>
+  <si>
+    <t>Управление отсечным клапаном ГВС</t>
   </si>
 </sst>
 </file>
@@ -569,7 +605,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="false" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="true" applyFont="true" applyFill="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1904,9 +1940,15 @@
       <c r="E4" s="27"/>
     </row>
     <row r="5" ht="13.55" customHeight="true">
-      <c r="A5" s="35"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
     </row>
@@ -1975,19 +2017,19 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="true">
       <c r="A1" s="26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
@@ -1999,16 +2041,16 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="true">
@@ -2029,14 +2071,14 @@
         <v>11</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
@@ -2045,14 +2087,14 @@
       <c r="A5" s="27"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
@@ -2061,14 +2103,14 @@
       <c r="A6" s="27"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
@@ -2076,17 +2118,17 @@
     <row r="7" ht="13.55" customHeight="true">
       <c r="A7" s="27"/>
       <c r="B7" s="26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
@@ -2095,14 +2137,14 @@
       <c r="A8" s="27"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>32</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
@@ -2111,14 +2153,14 @@
       <c r="A9" s="27"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="12"/>
@@ -2128,11 +2170,11 @@
       <c r="B10" s="27"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
@@ -2140,17 +2182,17 @@
     <row r="11" ht="12.75" customHeight="true">
       <c r="A11" s="7"/>
       <c r="B11" s="39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="12"/>
@@ -2159,89 +2201,202 @@
       <c r="A12" s="20"/>
       <c r="B12" s="40"/>
       <c r="C12" s="41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="21"/>
     </row>
     <row r="13" ht="12.75" customHeight="true">
       <c r="C13" s="36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="true">
       <c r="C14" s="36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="true">
       <c r="B15" s="36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="true">
       <c r="C16" s="36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="true">
       <c r="C17" s="36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="true">
       <c r="C18" s="36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D18" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="true">
+      <c r="B19" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="true">
+      <c r="C20" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="true">
+      <c r="D21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="true">
+      <c r="C22" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="true">
+      <c r="C23" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="true">
+      <c r="C24" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>30</v>
+      <c r="D24" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="true">
+      <c r="C25" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="true">
+      <c r="D26" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75" customHeight="true">
+      <c r="C27" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75" customHeight="true">
+      <c r="D28" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -2249,6 +2404,8 @@
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" scale="100"/>
